--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -405,10 +405,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B2" t="str">
-        <v>A</v>
+        <v>松树</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B3" t="str">
-        <v>B</v>
+        <v>杨树</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -457,10 +457,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B4" t="str">
-        <v>C</v>
+        <v>柳树</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -483,10 +483,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>样地2</v>
+        <v>A2</v>
       </c>
       <c r="B5" t="str">
-        <v>A</v>
+        <v>松树</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>样地2</v>
+        <v>A2</v>
       </c>
       <c r="B6" t="str">
-        <v>C</v>
+        <v>柳树</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A</v>
+        <v>松树</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B</v>
+        <v>杨树</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>C</v>
+        <v>柳树</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>样地2</v>
+        <v>A2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B2" t="str">
-        <v>A</v>
+        <v>松树</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B3" t="str">
-        <v>B</v>
+        <v>杨树</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>样地1</v>
+        <v>A1</v>
       </c>
       <c r="B4" t="str">
-        <v>C</v>
+        <v>柳树</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>样地2</v>
+        <v>A2</v>
       </c>
       <c r="B5" t="str">
-        <v>A</v>
+        <v>松树</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>样地2</v>
+        <v>A2</v>
       </c>
       <c r="B6" t="str">
-        <v>C</v>
+        <v>柳树</v>
       </c>
       <c r="C6">
         <v>1</v>

--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -7,6 +7,7 @@
     <sheet name="统计：物种" sheetId="2" r:id="rId2"/>
     <sheet name="统计：样地" sheetId="3" r:id="rId3"/>
     <sheet name="统计：样地-物种" sheetId="4" r:id="rId4"/>
+    <sheet name="统计结果" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H88"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -405,132 +406,2264 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B2" t="str">
-        <v>松树</v>
+        <v>润南</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>15.1</v>
+      </c>
+      <c r="E2">
+        <v>179.07863523625218</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>314.1592653589793</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B3" t="str">
-        <v>杨树</v>
+        <v>润南</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13.9</v>
       </c>
       <c r="E3">
-        <v>176.71458676442586</v>
+        <v>151.74677915002098</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B4" t="str">
-        <v>柳树</v>
+        <v>润南</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>17.3</v>
       </c>
       <c r="E4">
-        <v>314.1592653589793</v>
+        <v>235.0618163232223</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
       <c r="B5" t="str">
-        <v>松树</v>
+        <v>栲</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>10.1</v>
+      </c>
+      <c r="E5">
+        <v>80.1184666481737</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>20</v>
-      </c>
-      <c r="E5">
-        <v>314.1592653589793</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>栲</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>14.7</v>
+      </c>
+      <c r="E6">
+        <v>169.71668912855458</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B7" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10.1</v>
+      </c>
+      <c r="E7">
+        <v>80.1184666481737</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>34.2</v>
+      </c>
+      <c r="E8">
+        <v>918.6331078361916</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B9" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>24.1</v>
+      </c>
+      <c r="E9">
+        <v>456.167107282872</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B10" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>24.8</v>
+      </c>
+      <c r="E10">
+        <v>483.0512864159666</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>8.6</v>
+      </c>
+      <c r="E11">
+        <v>58.088048164875275</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B12" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20.4</v>
+      </c>
+      <c r="E12">
+        <v>326.851299679482</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B13" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>20.1</v>
+      </c>
+      <c r="E13">
+        <v>317.3087119942031</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B14" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13.6</v>
+      </c>
+      <c r="E14">
+        <v>145.26724430199204</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B15" t="str">
+        <v>小果润楠</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10.1</v>
+      </c>
+      <c r="E15">
+        <v>80.1184666481737</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B16" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>13.1</v>
+      </c>
+      <c r="E16">
+        <v>134.7821788206361</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B17" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>9.3</v>
+      </c>
+      <c r="E17">
+        <v>67.92908715224532</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B18" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>9.4</v>
+      </c>
+      <c r="E18">
+        <v>69.39778171779854</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B19" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>5.4</v>
+      </c>
+      <c r="E19">
+        <v>22.902210444669592</v>
+      </c>
+      <c r="F19">
+        <v>1.5</v>
+      </c>
+      <c r="G19">
+        <v>1.5</v>
+      </c>
+      <c r="H19">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B20" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>22.7</v>
+      </c>
+      <c r="E20">
+        <v>404.70781961707104</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B21" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>18.1</v>
+      </c>
+      <c r="E21">
+        <v>257.30429231063806</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B22" t="str">
+        <v>枹栎</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>16.2</v>
+      </c>
+      <c r="E22">
+        <v>206.1198940020263</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>栲</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>14.1</v>
+      </c>
+      <c r="E23">
+        <v>156.1450088650467</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B24" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6.5</v>
+      </c>
+      <c r="E24">
+        <v>33.18307240354219</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B25" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>6.1</v>
+      </c>
+      <c r="E25">
+        <v>29.224665660019046</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0.8</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B26" t="str">
+        <v>枹栎</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>20.1</v>
+      </c>
+      <c r="E26">
+        <v>317.3087119942031</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B27" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>7.5</v>
+      </c>
+      <c r="E27">
+        <v>44.178646691106465</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B28" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>25.1</v>
+      </c>
+      <c r="E28">
+        <v>494.80869692202646</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5.4</v>
+      </c>
+      <c r="H28">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B29" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>17.6</v>
+      </c>
+      <c r="E29">
+        <v>243.28493509399362</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B30" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>14.5</v>
+      </c>
+      <c r="E30">
+        <v>165.1299638543135</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4.8</v>
+      </c>
+      <c r="H30">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B31" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>12.9</v>
+      </c>
+      <c r="E31">
+        <v>130.69810837096938</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2.5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B32" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>14.8</v>
+      </c>
+      <c r="E32">
+        <v>172.03361371057707</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B33" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>7.9</v>
+      </c>
+      <c r="E33">
+        <v>49.01669937763475</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B34" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5.1</v>
+      </c>
+      <c r="E34">
+        <v>20.428206229967625</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B35" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>23.7</v>
+      </c>
+      <c r="E35">
+        <v>441.1502943987127</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B36" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>5.8</v>
+      </c>
+      <c r="E36">
+        <v>26.420794216690158</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B37" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5.1</v>
+      </c>
+      <c r="E37">
+        <v>20.428206229967625</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B38" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>27.8</v>
+      </c>
+      <c r="E38">
+        <v>606.9871166000839</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B39" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>8.9</v>
+      </c>
+      <c r="E39">
+        <v>62.211388522711886</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B40" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>21.1</v>
+      </c>
+      <c r="E40">
+        <v>349.667116326178</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B41" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>6.2</v>
+      </c>
+      <c r="E41">
+        <v>30.190705400997913</v>
+      </c>
+      <c r="F41">
+        <v>1.5</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B42" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>8.2</v>
+      </c>
+      <c r="E42">
+        <v>52.81017250684441</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B43" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>7.9</v>
+      </c>
+      <c r="E43">
+        <v>49.01669937763475</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5.6</v>
+      </c>
+      <c r="H43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B44" t="str">
+        <v>小果润楠</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>5.4</v>
+      </c>
+      <c r="E44">
+        <v>22.902210444669592</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B45" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>6.7</v>
+      </c>
+      <c r="E45">
+        <v>35.25652355491146</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B46" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>13.1</v>
+      </c>
+      <c r="E46">
+        <v>134.7821788206361</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B47" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>13.7</v>
+      </c>
+      <c r="E47">
+        <v>147.41138128806705</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B48" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>12.8</v>
+      </c>
+      <c r="E48">
+        <v>128.67963509103794</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2.5</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B49" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>12.8</v>
+      </c>
+      <c r="E49">
+        <v>128.67963509103794</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>2.5</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B50" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>15.6</v>
+      </c>
+      <c r="E50">
+        <v>191.13449704440302</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B51" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>20.6</v>
+      </c>
+      <c r="E51">
+        <v>333.2915646193412</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B52" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>14.9</v>
+      </c>
+      <c r="E52">
+        <v>174.3662462558675</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B53" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>11.9</v>
+      </c>
+      <c r="E53">
+        <v>111.22023391871265</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B54" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>113.09733552923255</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B55" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>8.7</v>
+      </c>
+      <c r="E55">
+        <v>59.446786987552855</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B56" t="str">
+        <v>细叶楠</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2.3</v>
+      </c>
+      <c r="E56">
+        <v>4.1547562843725006</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B57" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>7.8</v>
+      </c>
+      <c r="E57">
+        <v>47.783624261100755</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>16.2</v>
+      </c>
+      <c r="E58">
+        <v>206.1198940020263</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B59" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3.7</v>
+      </c>
+      <c r="E59">
+        <v>10.752100856911067</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B60" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>7.5</v>
+      </c>
+      <c r="E60">
+        <v>44.178646691106465</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B61" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3.4</v>
+      </c>
+      <c r="E61">
+        <v>9.079202768874502</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B62" t="str">
+        <v>山茶</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>4.3</v>
+      </c>
+      <c r="E62">
+        <v>14.522012041218819</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B63" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>12.4</v>
+      </c>
+      <c r="E63">
+        <v>120.76282160399165</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B64" t="str">
+        <v>山茶</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>4.9</v>
+      </c>
+      <c r="E64">
+        <v>18.857409903172737</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B65" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>7.7</v>
+      </c>
+      <c r="E65">
+        <v>46.566257107834716</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B66" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>15.3</v>
+      </c>
+      <c r="E66">
+        <v>183.85385606970868</v>
+      </c>
+      <c r="F66">
+        <v>6.5</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B67" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>6.8</v>
+      </c>
+      <c r="E67">
+        <v>36.31681107549801</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B68" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4.3</v>
+      </c>
+      <c r="E68">
+        <v>14.522012041218819</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B69" t="str">
+        <v>润楠</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>20.5</v>
+      </c>
+      <c r="E69">
+        <v>330.0635781677776</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B70" t="str">
+        <v>润楠</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>15.6</v>
+      </c>
+      <c r="E70">
+        <v>191.13449704440302</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B71" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>8.6</v>
+      </c>
+      <c r="E71">
+        <v>58.088048164875275</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B72" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>7.0685834705770345</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B73" t="str">
+        <v>润楠</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>27.9</v>
+      </c>
+      <c r="E73">
+        <v>611.3617843702077</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
         <v>A2</v>
       </c>
-      <c r="B6" t="str">
-        <v>柳树</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>176.71458676442586</v>
-      </c>
-      <c r="F6">
+      <c r="B74" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>8.7</v>
+      </c>
+      <c r="E74">
+        <v>59.446786987552855</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B75" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>7.2</v>
+      </c>
+      <c r="E75">
+        <v>40.71504079052372</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B76" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4.5</v>
+      </c>
+      <c r="E76">
+        <v>15.904312808798327</v>
+      </c>
+      <c r="F76">
+        <v>1.5</v>
+      </c>
+      <c r="G76">
+        <v>1.5</v>
+      </c>
+      <c r="H76">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B77" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4.8</v>
+      </c>
+      <c r="E77">
+        <v>18.09557368467721</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B78" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5.4</v>
+      </c>
+      <c r="E78">
+        <v>22.902210444669592</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1.5</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B79" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>7.0685834705770345</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1.5</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B80" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>7.0685834705770345</v>
+      </c>
+      <c r="F80">
+        <v>1.5</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B81" t="str">
+        <v>细叶楠</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>7.7</v>
+      </c>
+      <c r="E81">
+        <v>46.566257107834716</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B82" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>10.4</v>
+      </c>
+      <c r="E82">
+        <v>84.94866535306801</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B83" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>11.6</v>
+      </c>
+      <c r="E83">
+        <v>105.68317686676063</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B84" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>4.5</v>
+      </c>
+      <c r="E84">
+        <v>15.904312808798327</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B85" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>9.7</v>
+      </c>
+      <c r="E85">
+        <v>73.8981131940659</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B86" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>11.1</v>
+      </c>
+      <c r="E86">
+        <v>96.76890771219959</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B87" t="str">
+        <v>大树</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>38.7</v>
+      </c>
+      <c r="E87">
+        <v>1176.2829753387246</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B88" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
+      <c r="E88">
+        <v>78.53981633974483</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -569,59 +2702,59 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>松树</v>
+        <v>润南</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>14.195652173913043</v>
       </c>
       <c r="E2">
-        <v>314.1592653589793</v>
+        <v>206.85646088830822</v>
       </c>
       <c r="F2">
-        <v>16.5</v>
+        <v>4.326086956521739</v>
       </c>
       <c r="G2">
-        <v>11.5</v>
+        <v>4.008695652173913</v>
       </c>
       <c r="H2">
-        <v>304.5</v>
+        <v>20.02173913043478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>杨树</v>
+        <v>栲</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.5</v>
+        <v>12.966666666666667</v>
       </c>
       <c r="E3">
-        <v>88.35729338221293</v>
+        <v>135.32672154725833</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>18.333333333333332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>柳树</v>
+        <v>小果润楠</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -630,19 +2763,331 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>17.5</v>
+        <v>7.75</v>
       </c>
       <c r="E4">
-        <v>245.4369260617026</v>
+        <v>51.51033854642164</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>11.885714285714286</v>
+      </c>
+      <c r="E5">
+        <v>125.7040980491379</v>
+      </c>
+      <c r="F5">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="G5">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="H5">
+        <v>11.714285714285714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>9.649999999999999</v>
+      </c>
+      <c r="E6">
+        <v>83.102979669084</v>
+      </c>
+      <c r="F6">
+        <v>3.6875</v>
+      </c>
+      <c r="G6">
+        <v>2.7625</v>
+      </c>
+      <c r="H6">
+        <v>11.03125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>15.877777777777775</v>
+      </c>
+      <c r="E7">
+        <v>249.19723793512438</v>
+      </c>
+      <c r="F7">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="G7">
+        <v>4.777777777777778</v>
+      </c>
+      <c r="H7">
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>枹栎</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>18.15</v>
+      </c>
+      <c r="E8">
+        <v>261.7143029981147</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
+        <v>3.5</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8.870000000000001</v>
+      </c>
+      <c r="E9">
+        <v>75.48540288229215</v>
+      </c>
+      <c r="F9">
+        <v>2.05</v>
+      </c>
+      <c r="G9">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="H9">
+        <v>3.225</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9.85</v>
+      </c>
+      <c r="E10">
+        <v>79.66686270422016</v>
+      </c>
+      <c r="F10">
+        <v>3.5</v>
+      </c>
+      <c r="G10">
+        <v>3.25</v>
+      </c>
+      <c r="H10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>细叶楠</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>25.36050669610361</v>
+      </c>
+      <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4.675</v>
+      </c>
+      <c r="E12">
+        <v>19.475910956848224</v>
+      </c>
+      <c r="F12">
+        <v>2.375</v>
+      </c>
+      <c r="G12">
+        <v>2.125</v>
+      </c>
+      <c r="H12">
+        <v>5.5625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>山茶</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4.6</v>
+      </c>
+      <c r="E13">
+        <v>16.689710972195776</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>9.957142857142857</v>
+      </c>
+      <c r="E14">
+        <v>86.00222088939687</v>
+      </c>
+      <c r="F14">
+        <v>3.357142857142857</v>
+      </c>
+      <c r="G14">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="H14">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>润楠</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="E15">
+        <v>377.5199531941294</v>
+      </c>
+      <c r="F15">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>大树</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>38.7</v>
+      </c>
+      <c r="E16">
+        <v>1176.2829753387246</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +3096,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -666,24 +3111,46 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v>A2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +3159,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H33"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -722,132 +3189,1546 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B2" t="str">
-        <v>松树</v>
+        <v>润南</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>18.38181818181818</v>
       </c>
       <c r="E2">
-        <v>314.1592653589793</v>
+        <v>304.67022754847744</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>5.545454545454546</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>5.090909090909091</v>
       </c>
       <c r="H2">
-        <v>600</v>
+        <v>30.181818181818183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B3" t="str">
-        <v>杨树</v>
+        <v>栲</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>7.5</v>
+        <v>12.966666666666667</v>
       </c>
       <c r="E3">
-        <v>88.35729338221293</v>
+        <v>135.32672154725833</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>18.333333333333332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A1</v>
+        <v>A3</v>
       </c>
       <c r="B4" t="str">
-        <v>柳树</v>
+        <v>小果润楠</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>10.1</v>
       </c>
       <c r="E4">
-        <v>314.1592653589793</v>
+        <v>80.1184666481737</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A2</v>
+        <v>A3</v>
       </c>
       <c r="B5" t="str">
-        <v>松树</v>
+        <v>枫香</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10.6</v>
       </c>
       <c r="E5">
-        <v>314.1592653589793</v>
+        <v>90.7030158968933</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5.4</v>
+      </c>
+      <c r="E6">
+        <v>22.902210444669592</v>
+      </c>
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B7" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>20.4</v>
+      </c>
+      <c r="E7">
+        <v>331.0060559638546</v>
+      </c>
+      <c r="F7">
+        <v>4.5</v>
+      </c>
+      <c r="G7">
+        <v>5.5</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>枹栎</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>18.15</v>
+      </c>
+      <c r="E8">
+        <v>261.7143029981147</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
+        <v>3.5</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>A3</v>
+      </c>
+      <c r="B9" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6.3</v>
+      </c>
+      <c r="E9">
+        <v>31.20386903178062</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B10" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>13.175</v>
+      </c>
+      <c r="E10">
+        <v>164.9473587813236</v>
+      </c>
+      <c r="F10">
+        <v>3.875</v>
+      </c>
+      <c r="G10">
+        <v>3.7125</v>
+      </c>
+      <c r="H10">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B11" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>15.4</v>
+      </c>
+      <c r="E11">
+        <v>251.14415271572406</v>
+      </c>
+      <c r="F11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H11">
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="E12">
+        <v>41.50043895392116</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B13" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>10.84</v>
+      </c>
+      <c r="E13">
+        <v>99.02928362645746</v>
+      </c>
+      <c r="F13">
+        <v>4.2</v>
+      </c>
+      <c r="G13">
+        <v>3.22</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>A4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>小果润楠</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5.4</v>
+      </c>
+      <c r="E14">
+        <v>22.902210444669592</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>12.8</v>
+      </c>
+      <c r="E15">
+        <v>128.67963509103794</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>11.899999999999999</v>
+      </c>
+      <c r="E16">
+        <v>131.77410385482386</v>
+      </c>
+      <c r="F16">
+        <v>2.375</v>
+      </c>
+      <c r="G16">
+        <v>1.875</v>
+      </c>
+      <c r="H16">
+        <v>5.3125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>14.733333333333334</v>
+      </c>
+      <c r="E17">
+        <v>189.03486595425386</v>
+      </c>
+      <c r="F17">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>9.85</v>
+      </c>
+      <c r="E18">
+        <v>79.66686270422016</v>
+      </c>
+      <c r="F18">
+        <v>3.5</v>
+      </c>
+      <c r="G18">
+        <v>3.25</v>
+      </c>
+      <c r="H18">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>细叶楠</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2.3</v>
+      </c>
+      <c r="E19">
+        <v>4.1547562843725006</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4.733333333333333</v>
+      </c>
+      <c r="E20">
+        <v>20.666443672864855</v>
+      </c>
+      <c r="F20">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G20">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H20">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>山茶</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4.6</v>
+      </c>
+      <c r="E21">
+        <v>16.689710972195776</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>11.05</v>
+      </c>
+      <c r="E22">
+        <v>110.08533357260335</v>
+      </c>
+      <c r="F22">
+        <v>4.25</v>
+      </c>
+      <c r="G22">
+        <v>3.5</v>
+      </c>
+      <c r="H22">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>6.449999999999999</v>
+      </c>
+      <c r="E23">
+        <v>36.305030103047045</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>A1</v>
+      </c>
+      <c r="B24" t="str">
+        <v>润楠</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="E24">
+        <v>377.5199531941294</v>
+      </c>
+      <c r="F24">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>A2</v>
       </c>
-      <c r="B6" t="str">
-        <v>柳树</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B25" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>7.05</v>
+      </c>
+      <c r="E25">
+        <v>41.17449871611122</v>
+      </c>
+      <c r="F25">
+        <v>1.5</v>
+      </c>
+      <c r="G25">
+        <v>1.25</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B26" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>7.2</v>
+      </c>
+      <c r="E26">
+        <v>40.71504079052372</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B27" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4.5</v>
+      </c>
+      <c r="E27">
+        <v>15.904312808798327</v>
+      </c>
+      <c r="F27">
+        <v>1.5</v>
+      </c>
+      <c r="G27">
+        <v>1.5</v>
+      </c>
+      <c r="H27">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B28" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4.8</v>
+      </c>
+      <c r="E28">
+        <v>18.09557368467721</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B29" t="str">
+        <v>润南</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>7.0685834705770345</v>
+      </c>
+      <c r="F29">
+        <v>1.75</v>
+      </c>
+      <c r="G29">
+        <v>1.25</v>
+      </c>
+      <c r="H29">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B30" t="str">
+        <v>细叶楠</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>7.7</v>
+      </c>
+      <c r="E30">
+        <v>46.566257107834716</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B31" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>9.52</v>
+      </c>
+      <c r="E31">
+        <v>76.36897581611427</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2.2</v>
+      </c>
+      <c r="H31">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B32" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>9.7</v>
+      </c>
+      <c r="E32">
+        <v>73.8981131940659</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>A2</v>
+      </c>
+      <c r="B33" t="str">
+        <v>大树</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>38.7</v>
+      </c>
+      <c r="E33">
+        <v>1176.2829753387246</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U16"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>物种</v>
+      </c>
+      <c r="B1" t="str">
+        <v>样方/种</v>
+      </c>
+      <c r="C1" t="str">
+        <v>总样方数</v>
+      </c>
+      <c r="D1" t="str">
+        <v>数量/种</v>
+      </c>
+      <c r="E1" t="str">
+        <v>总数量</v>
+      </c>
+      <c r="F1" t="str">
+        <v>冠幅/种</v>
+      </c>
+      <c r="G1" t="str">
+        <v>总冠幅</v>
+      </c>
+      <c r="H1" t="str">
+        <v>相对密度</v>
+      </c>
+      <c r="I1" t="str">
+        <v>相对频度</v>
+      </c>
+      <c r="J1" t="str">
+        <v>相对优势</v>
+      </c>
+      <c r="K1" t="str">
+        <v>重要值</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Pi</v>
+      </c>
+      <c r="M1" t="str">
+        <v>lnPi</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Pi*lnPi</v>
+      </c>
+      <c r="O1" t="str">
+        <v>分种Shannon-Wiener指数</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Shannon-Wiener指数</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Pi2</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Simpson指数</v>
+      </c>
+      <c r="S1" t="str">
+        <v>物种多样性指数</v>
+      </c>
+      <c r="T1" t="str">
+        <v>lnS</v>
+      </c>
+      <c r="U1" t="str">
+        <v>物种均匀度指数</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>润南</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>87</v>
+      </c>
+      <c r="F2">
+        <v>460.5</v>
+      </c>
+      <c r="G2">
+        <v>1268.75</v>
+      </c>
+      <c r="H2">
+        <v>0.26436781609195403</v>
+      </c>
+      <c r="I2">
+        <v>0.125</v>
+      </c>
+      <c r="J2">
+        <v>0.36295566502463056</v>
+      </c>
+      <c r="K2">
+        <v>0.25077449370552823</v>
+      </c>
+      <c r="L2">
+        <v>0.26436781609195403</v>
+      </c>
+      <c r="M2">
+        <v>-1.330413902725434</v>
+      </c>
+      <c r="N2">
+        <v>-0.35171861796189635</v>
+      </c>
+      <c r="O2">
+        <v>0.35171861796189635</v>
+      </c>
+      <c r="P2">
+        <v>2.373692951091396</v>
+      </c>
+      <c r="Q2">
+        <v>0.06989034218522923</v>
+      </c>
+      <c r="R2">
+        <v>0.12405866032500992</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="U2">
+        <v>0.8765321079074803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>栲</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="I3">
+        <v>0.03125</v>
+      </c>
+      <c r="J3">
+        <v>0.04334975369458128</v>
+      </c>
+      <c r="K3">
+        <v>0.036360837438423645</v>
+      </c>
+      <c r="L3">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="M3">
+        <v>-3.367295829986474</v>
+      </c>
+      <c r="N3">
+        <v>-0.11611364930987841</v>
+      </c>
+      <c r="O3">
+        <v>0.11611364930987841</v>
+      </c>
+      <c r="Q3">
+        <v>0.0011890606420927466</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>小果润楠</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="I4">
+        <v>0.0625</v>
+      </c>
+      <c r="J4">
+        <v>0.014187192118226602</v>
+      </c>
+      <c r="K4">
+        <v>0.03322523262178435</v>
+      </c>
+      <c r="L4">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="M4">
+        <v>-3.7727609380946383</v>
+      </c>
+      <c r="N4">
+        <v>-0.08673013650792272</v>
+      </c>
+      <c r="O4">
+        <v>0.08673013650792272</v>
+      </c>
+      <c r="Q4">
+        <v>0.0005284713964856652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>枫香</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>82</v>
+      </c>
+      <c r="H5">
+        <v>0.08045977011494253</v>
+      </c>
+      <c r="I5">
+        <v>0.09375</v>
+      </c>
+      <c r="J5">
+        <v>0.06463054187192119</v>
+      </c>
+      <c r="K5">
+        <v>0.07961343732895458</v>
+      </c>
+      <c r="L5">
+        <v>0.08045977011494253</v>
+      </c>
+      <c r="M5">
+        <v>-2.5199979695992702</v>
+      </c>
+      <c r="N5">
+        <v>-0.2027584573240792</v>
+      </c>
+      <c r="O5">
+        <v>0.2027584573240792</v>
+      </c>
+      <c r="Q5">
+        <v>0.006473774606949399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>宜昌润楠</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>176.71458676442586</v>
+        <v>8</v>
       </c>
       <c r="F6">
+        <v>88.25</v>
+      </c>
+      <c r="H6">
+        <v>0.09195402298850575</v>
+      </c>
+      <c r="I6">
+        <v>0.125</v>
+      </c>
+      <c r="J6">
+        <v>0.06955665024630542</v>
+      </c>
+      <c r="K6">
+        <v>0.09550355774493706</v>
+      </c>
+      <c r="L6">
+        <v>0.09195402298850575</v>
+      </c>
+      <c r="M6">
+        <v>-2.386466576974748</v>
+      </c>
+      <c r="N6">
+        <v>-0.21944520248043659</v>
+      </c>
+      <c r="O6">
+        <v>0.21944520248043659</v>
+      </c>
+      <c r="Q6">
+        <v>0.008455542343770644</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>青冈</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>195</v>
+      </c>
+      <c r="H7">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="I7">
+        <v>0.09375</v>
+      </c>
+      <c r="J7">
+        <v>0.15369458128078817</v>
+      </c>
+      <c r="K7">
+        <v>0.1169642857142857</v>
+      </c>
+      <c r="L7">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="M7">
+        <v>-2.268683541318364</v>
+      </c>
+      <c r="N7">
+        <v>-0.23469140082603768</v>
+      </c>
+      <c r="O7">
+        <v>0.23469140082603768</v>
+      </c>
+      <c r="Q7">
+        <v>0.01070154577883472</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>枹栎</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="I8">
+        <v>0.03125</v>
+      </c>
+      <c r="J8">
+        <v>0.018916256157635467</v>
+      </c>
+      <c r="K8">
+        <v>0.024384920634920634</v>
+      </c>
+      <c r="L8">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="M8">
+        <v>-3.7727609380946383</v>
+      </c>
+      <c r="N8">
+        <v>-0.08673013650792272</v>
+      </c>
+      <c r="O8">
+        <v>0.08673013650792272</v>
+      </c>
+      <c r="Q8">
+        <v>0.0005284713964856652</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>杉木</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
+      <c r="F9">
+        <v>32.25</v>
+      </c>
+      <c r="H9">
+        <v>0.11494252873563218</v>
+      </c>
+      <c r="I9">
+        <v>0.125</v>
+      </c>
+      <c r="J9">
+        <v>0.02541871921182266</v>
+      </c>
+      <c r="K9">
+        <v>0.08845374931581829</v>
+      </c>
+      <c r="L9">
+        <v>0.11494252873563218</v>
+      </c>
+      <c r="M9">
+        <v>-2.1633230256605382</v>
+      </c>
+      <c r="N9">
+        <v>-0.24865781904144119</v>
+      </c>
+      <c r="O9">
+        <v>0.24865781904144119</v>
+      </c>
+      <c r="Q9">
+        <v>0.01321178491214163</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>柞木</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>0.04597701149425287</v>
+      </c>
+      <c r="I10">
+        <v>0.03125</v>
+      </c>
+      <c r="J10">
+        <v>0.03940886699507389</v>
+      </c>
+      <c r="K10">
+        <v>0.03887862616310892</v>
+      </c>
+      <c r="L10">
+        <v>0.04597701149425287</v>
+      </c>
+      <c r="M10">
+        <v>-3.079613757534693</v>
+      </c>
+      <c r="N10">
+        <v>-0.14159143712803185</v>
+      </c>
+      <c r="O10">
+        <v>0.14159143712803185</v>
+      </c>
+      <c r="Q10">
+        <v>0.002113885585942661</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>细叶楠</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="I11">
+        <v>0.0625</v>
+      </c>
+      <c r="J11">
+        <v>0.007093596059113301</v>
+      </c>
+      <c r="K11">
+        <v>0.030860700602079915</v>
+      </c>
+      <c r="L11">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="M11">
+        <v>-3.7727609380946383</v>
+      </c>
+      <c r="N11">
+        <v>-0.08673013650792272</v>
+      </c>
+      <c r="O11">
+        <v>0.08673013650792272</v>
+      </c>
+      <c r="Q11">
+        <v>0.0005284713964856652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>野桐</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>22.25</v>
+      </c>
+      <c r="H12">
+        <v>0.04597701149425287</v>
+      </c>
+      <c r="I12">
+        <v>0.0625</v>
+      </c>
+      <c r="J12">
+        <v>0.01753694581280788</v>
+      </c>
+      <c r="K12">
+        <v>0.042004652435686914</v>
+      </c>
+      <c r="L12">
+        <v>0.04597701149425287</v>
+      </c>
+      <c r="M12">
+        <v>-3.079613757534693</v>
+      </c>
+      <c r="N12">
+        <v>-0.14159143712803185</v>
+      </c>
+      <c r="O12">
+        <v>0.14159143712803185</v>
+      </c>
+      <c r="Q12">
+        <v>0.002113885585942661</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>山茶</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="I13">
+        <v>0.03125</v>
+      </c>
+      <c r="J13">
+        <v>0.006305418719211823</v>
+      </c>
+      <c r="K13">
+        <v>0.020181308155446085</v>
+      </c>
+      <c r="L13">
+        <v>0.022988505747126436</v>
+      </c>
+      <c r="M13">
+        <v>-3.7727609380946383</v>
+      </c>
+      <c r="N13">
+        <v>-0.08673013650792272</v>
+      </c>
+      <c r="O13">
+        <v>0.08673013650792272</v>
+      </c>
+      <c r="Q13">
+        <v>0.0005284713964856652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>麻栎</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>73.5</v>
+      </c>
+      <c r="H14">
+        <v>0.08045977011494253</v>
+      </c>
+      <c r="I14">
+        <v>0.0625</v>
+      </c>
+      <c r="J14">
+        <v>0.057931034482758624</v>
+      </c>
+      <c r="K14">
+        <v>0.06696360153256706</v>
+      </c>
+      <c r="L14">
+        <v>0.08045977011494253</v>
+      </c>
+      <c r="M14">
+        <v>-2.5199979695992702</v>
+      </c>
+      <c r="N14">
+        <v>-0.2027584573240792</v>
+      </c>
+      <c r="O14">
+        <v>0.2027584573240792</v>
+      </c>
+      <c r="Q14">
+        <v>0.006473774606949399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>润楠</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>102</v>
+      </c>
+      <c r="H15">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="I15">
+        <v>0.03125</v>
+      </c>
+      <c r="J15">
+        <v>0.08039408866995074</v>
+      </c>
+      <c r="K15">
+        <v>0.04870894909688014</v>
+      </c>
+      <c r="L15">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="M15">
+        <v>-3.367295829986474</v>
+      </c>
+      <c r="N15">
+        <v>-0.11611364930987841</v>
+      </c>
+      <c r="O15">
+        <v>0.11611364930987841</v>
+      </c>
+      <c r="Q15">
+        <v>0.0011890606420927466</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>大树</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>49</v>
+      </c>
+      <c r="H16">
+        <v>0.011494252873563218</v>
+      </c>
+      <c r="I16">
+        <v>0.03125</v>
+      </c>
+      <c r="J16">
+        <v>0.038620689655172416</v>
+      </c>
+      <c r="K16">
+        <v>0.027121647509578545</v>
+      </c>
+      <c r="L16">
+        <v>0.011494252873563218</v>
+      </c>
+      <c r="M16">
+        <v>-4.465908118654584</v>
+      </c>
+      <c r="N16">
+        <v>-0.051332277225914755</v>
+      </c>
+      <c r="O16">
+        <v>0.051332277225914755</v>
+      </c>
+      <c r="Q16">
+        <v>0.0001321178491214163</v>
       </c>
     </row>
   </sheetData>

--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -398,10 +398,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -463,10 +463,10 @@
         <v>87</v>
       </c>
       <c r="F2">
-        <v>460.5</v>
+        <v>4757.698600431089</v>
       </c>
       <c r="G2">
-        <v>1268.75</v>
+        <v>13724.039653225376</v>
       </c>
       <c r="H2">
         <v>0.26436781609195403</v>
@@ -475,10 +475,10 @@
         <v>0.125</v>
       </c>
       <c r="J2">
-        <v>0.36295566502463056</v>
+        <v>0.3466689634136223</v>
       </c>
       <c r="K2">
-        <v>0.25077449370552823</v>
+        <v>0.24534559316852544</v>
       </c>
       <c r="L2">
         <v>0.26436781609195403</v>
@@ -499,7 +499,7 @@
         <v>0.06989034218522923</v>
       </c>
       <c r="R2">
-        <v>0.12405866032500992</v>
+        <v>0.8759413396749901</v>
       </c>
       <c r="S2">
         <v>15</v>
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>405.980164641775</v>
       </c>
       <c r="H3">
         <v>0.034482758620689655</v>
@@ -531,10 +531,10 @@
         <v>0.03125</v>
       </c>
       <c r="J3">
-        <v>0.04334975369458128</v>
+        <v>0.029581681115761198</v>
       </c>
       <c r="K3">
-        <v>0.036360837438423645</v>
+        <v>0.031771479912150284</v>
       </c>
       <c r="L3">
         <v>0.034482758620689655</v>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>103.02067709284329</v>
       </c>
       <c r="H4">
         <v>0.022988505747126436</v>
@@ -572,10 +572,10 @@
         <v>0.0625</v>
       </c>
       <c r="J4">
-        <v>0.014187192118226602</v>
+        <v>0.0075065855022235905</v>
       </c>
       <c r="K4">
-        <v>0.03322523262178435</v>
+        <v>0.030998363749783344</v>
       </c>
       <c r="L4">
         <v>0.022988505747126436</v>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>82</v>
+        <v>879.9286863439653</v>
       </c>
       <c r="H5">
         <v>0.08045977011494253</v>
@@ -613,10 +613,10 @@
         <v>0.09375</v>
       </c>
       <c r="J5">
-        <v>0.06463054187192119</v>
+        <v>0.06411586592415357</v>
       </c>
       <c r="K5">
-        <v>0.07961343732895458</v>
+        <v>0.07944187867969871</v>
       </c>
       <c r="L5">
         <v>0.08045977011494253</v>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>88.25</v>
+        <v>664.823837352672</v>
       </c>
       <c r="H6">
         <v>0.09195402298850575</v>
@@ -654,10 +654,10 @@
         <v>0.125</v>
       </c>
       <c r="J6">
-        <v>0.06955665024630542</v>
+        <v>0.04844228479013665</v>
       </c>
       <c r="K6">
-        <v>0.09550355774493706</v>
+        <v>0.08846543592621414</v>
       </c>
       <c r="L6">
         <v>0.09195402298850575</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>195</v>
+        <v>2242.7751414161194</v>
       </c>
       <c r="H7">
         <v>0.10344827586206896</v>
@@ -695,10 +695,10 @@
         <v>0.09375</v>
       </c>
       <c r="J7">
-        <v>0.15369458128078817</v>
+        <v>0.1634194594365683</v>
       </c>
       <c r="K7">
-        <v>0.1169642857142857</v>
+        <v>0.12020591176621243</v>
       </c>
       <c r="L7">
         <v>0.10344827586206896</v>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>523.4286059962294</v>
       </c>
       <c r="H8">
         <v>0.022988505747126436</v>
@@ -736,10 +736,10 @@
         <v>0.03125</v>
       </c>
       <c r="J8">
-        <v>0.018916256157635467</v>
+        <v>0.038139543401363975</v>
       </c>
       <c r="K8">
-        <v>0.024384920634920634</v>
+        <v>0.0307926830494968</v>
       </c>
       <c r="L8">
         <v>0.022988505747126436</v>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>32.25</v>
+        <v>754.8540288229215</v>
       </c>
       <c r="H9">
         <v>0.11494252873563218</v>
@@ -777,10 +777,10 @@
         <v>0.125</v>
       </c>
       <c r="J9">
-        <v>0.02541871921182266</v>
+        <v>0.055002320591919764</v>
       </c>
       <c r="K9">
-        <v>0.08845374931581829</v>
+        <v>0.09831494977585065</v>
       </c>
       <c r="L9">
         <v>0.11494252873563218</v>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>318.66745081688066</v>
       </c>
       <c r="H10">
         <v>0.04597701149425287</v>
@@ -818,10 +818,10 @@
         <v>0.03125</v>
       </c>
       <c r="J10">
-        <v>0.03940886699507389</v>
+        <v>0.02321965389702066</v>
       </c>
       <c r="K10">
-        <v>0.03887862616310892</v>
+        <v>0.03348222179709118</v>
       </c>
       <c r="L10">
         <v>0.04597701149425287</v>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>50.72101339220722</v>
       </c>
       <c r="H11">
         <v>0.022988505747126436</v>
@@ -859,10 +859,10 @@
         <v>0.0625</v>
       </c>
       <c r="J11">
-        <v>0.007093596059113301</v>
+        <v>0.003695778697366773</v>
       </c>
       <c r="K11">
-        <v>0.030860700602079915</v>
+        <v>0.02972809481483107</v>
       </c>
       <c r="L11">
         <v>0.022988505747126436</v>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>22.25</v>
+        <v>77.9036438273929</v>
       </c>
       <c r="H12">
         <v>0.04597701149425287</v>
@@ -900,10 +900,10 @@
         <v>0.0625</v>
       </c>
       <c r="J12">
-        <v>0.01753694581280788</v>
+        <v>0.005676436806934192</v>
       </c>
       <c r="K12">
-        <v>0.042004652435686914</v>
+        <v>0.038051149433729024</v>
       </c>
       <c r="L12">
         <v>0.04597701149425287</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>33.37942194439155</v>
       </c>
       <c r="H13">
         <v>0.022988505747126436</v>
@@ -941,10 +941,10 @@
         <v>0.03125</v>
       </c>
       <c r="J13">
-        <v>0.006305418719211823</v>
+        <v>0.0024321863524014837</v>
       </c>
       <c r="K13">
-        <v>0.020181308155446085</v>
+        <v>0.01889023069984264</v>
       </c>
       <c r="L13">
         <v>0.022988505747126436</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>73.5</v>
+        <v>602.015546225778</v>
       </c>
       <c r="H14">
         <v>0.08045977011494253</v>
@@ -982,10 +982,10 @@
         <v>0.0625</v>
       </c>
       <c r="J14">
-        <v>0.057931034482758624</v>
+        <v>0.04386576849362968</v>
       </c>
       <c r="K14">
-        <v>0.06696360153256706</v>
+        <v>0.06227517953619074</v>
       </c>
       <c r="L14">
         <v>0.08045977011494253</v>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>102</v>
+        <v>1132.5598595823883</v>
       </c>
       <c r="H15">
         <v>0.034482758620689655</v>
@@ -1023,10 +1023,10 @@
         <v>0.03125</v>
       </c>
       <c r="J15">
-        <v>0.08039408866995074</v>
+        <v>0.08252379679741147</v>
       </c>
       <c r="K15">
-        <v>0.04870894909688014</v>
+        <v>0.049418851806033705</v>
       </c>
       <c r="L15">
         <v>0.034482758620689655</v>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>49</v>
+        <v>1176.2829753387246</v>
       </c>
       <c r="H16">
         <v>0.011494252873563218</v>
@@ -1064,10 +1064,10 @@
         <v>0.03125</v>
       </c>
       <c r="J16">
-        <v>0.038620689655172416</v>
+        <v>0.08570967477948656</v>
       </c>
       <c r="K16">
-        <v>0.027121647509578545</v>
+        <v>0.04281797588434993</v>
       </c>
       <c r="L16">
         <v>0.011494252873563218</v>
@@ -1110,10 +1110,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -1175,10 +1175,10 @@
         <v>108</v>
       </c>
       <c r="F2">
-        <v>128.5</v>
+        <v>1737.206489655548</v>
       </c>
       <c r="G2">
-        <v>1136.53</v>
+        <v>10329.108968050103</v>
       </c>
       <c r="H2">
         <v>0.06481481481481481</v>
@@ -1187,10 +1187,10 @@
         <v>0.03125</v>
       </c>
       <c r="J2">
-        <v>0.11306344751128435</v>
+        <v>0.1681855129062011</v>
       </c>
       <c r="K2">
-        <v>0.06970942077536639</v>
+        <v>0.08808344257367197</v>
       </c>
       <c r="L2">
         <v>0.06481481481481481</v>
@@ -1211,7 +1211,7 @@
         <v>0.004200960219478737</v>
       </c>
       <c r="R2">
-        <v>0.12568587105624143</v>
+        <v>0.8743141289437586</v>
       </c>
       <c r="S2">
         <v>18</v>
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>269.25</v>
+        <v>2973.5881324574457</v>
       </c>
       <c r="H3">
         <v>0.1388888888888889</v>
@@ -1243,10 +1243,10 @@
         <v>0.125</v>
       </c>
       <c r="J3">
-        <v>0.2369053170615822</v>
+        <v>0.287884283306074</v>
       </c>
       <c r="K3">
-        <v>0.16693140198349035</v>
+        <v>0.1839243907316543</v>
       </c>
       <c r="L3">
         <v>0.1388888888888889</v>
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>39.65</v>
+        <v>1119.8521172986177</v>
       </c>
       <c r="H4">
         <v>0.1388888888888889</v>
@@ -1284,10 +1284,10 @@
         <v>0.125</v>
       </c>
       <c r="J4">
-        <v>0.03488689255892937</v>
+        <v>0.1084171074932536</v>
       </c>
       <c r="K4">
-        <v>0.09959192714927274</v>
+        <v>0.1241019987940475</v>
       </c>
       <c r="L4">
         <v>0.1388888888888889</v>
@@ -1316,7 +1316,7 @@
         <v>27</v>
       </c>
       <c r="F5">
-        <v>179.38</v>
+        <v>720.2493857436299</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -1325,10 +1325,10 @@
         <v>0.125</v>
       </c>
       <c r="J5">
-        <v>0.15783129349863181</v>
+        <v>0.06973005977296766</v>
       </c>
       <c r="K5">
-        <v>0.1776104311662106</v>
+        <v>0.1482433532576559</v>
       </c>
       <c r="L5">
         <v>0.25</v>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>25.75</v>
+        <v>148.77012011074464</v>
       </c>
       <c r="H6">
         <v>0.05555555555555555</v>
@@ -1366,10 +1366,10 @@
         <v>0.0625</v>
       </c>
       <c r="J6">
-        <v>0.02265668306159978</v>
+        <v>0.014402996480230667</v>
       </c>
       <c r="K6">
-        <v>0.046904079539051784</v>
+        <v>0.0441528506785954</v>
       </c>
       <c r="L6">
         <v>0.05555555555555555</v>
@@ -1398,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>75.5</v>
+        <v>184.53715247186446</v>
       </c>
       <c r="H7">
         <v>0.06481481481481481</v>
@@ -1407,10 +1407,10 @@
         <v>0.03125</v>
       </c>
       <c r="J7">
-        <v>0.06643027460779742</v>
+        <v>0.017865737794293093</v>
       </c>
       <c r="K7">
-        <v>0.05416502980753741</v>
+        <v>0.037976850869702636</v>
       </c>
       <c r="L7">
         <v>0.06481481481481481</v>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>15.205308443374602</v>
       </c>
       <c r="H8">
         <v>0.009259259259259259</v>
@@ -1448,10 +1448,10 @@
         <v>0.03125</v>
       </c>
       <c r="J8">
-        <v>0.007918840681724196</v>
+        <v>0.0014720832639492439</v>
       </c>
       <c r="K8">
-        <v>0.01614269998032782</v>
+        <v>0.013993780841069501</v>
       </c>
       <c r="L8">
         <v>0.009259259259259259</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>7.5</v>
+        <v>25.517586328783096</v>
       </c>
       <c r="H9">
         <v>0.009259259259259259</v>
@@ -1489,10 +1489,10 @@
         <v>0.03125</v>
       </c>
       <c r="J9">
-        <v>0.0065990339014368295</v>
+        <v>0.002470453783352837</v>
       </c>
       <c r="K9">
-        <v>0.015702764386898698</v>
+        <v>0.014326571014204032</v>
       </c>
       <c r="L9">
         <v>0.009259259259259259</v>
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>109</v>
+        <v>1185.927664785245</v>
       </c>
       <c r="H10">
         <v>0.06481481481481481</v>
@@ -1530,10 +1530,10 @@
         <v>0.0625</v>
       </c>
       <c r="J10">
-        <v>0.09590595936754859</v>
+        <v>0.11481413047858675</v>
       </c>
       <c r="K10">
-        <v>0.07440692472745447</v>
+        <v>0.08070964843113386</v>
       </c>
       <c r="L10">
         <v>0.06481481481481481</v>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>39.5</v>
+        <v>197.15064697602747</v>
       </c>
       <c r="H11">
         <v>0.046296296296296294</v>
@@ -1571,10 +1571,10 @@
         <v>0.09375</v>
       </c>
       <c r="J11">
-        <v>0.03475491188090064</v>
+        <v>0.019086897774614624</v>
       </c>
       <c r="K11">
-        <v>0.05826706939239897</v>
+        <v>0.05304439802363697</v>
       </c>
       <c r="L11">
         <v>0.046296296296296294</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>8.552985999398212</v>
       </c>
       <c r="H12">
         <v>0.009259259259259259</v>
@@ -1612,10 +1612,10 @@
         <v>0.03125</v>
       </c>
       <c r="J12">
-        <v>0.005279227121149464</v>
+        <v>0.0008280468359714495</v>
       </c>
       <c r="K12">
-        <v>0.015262828793469574</v>
+        <v>0.01377910203174357</v>
       </c>
       <c r="L12">
         <v>0.009259259259259259</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>116.89866264007618</v>
       </c>
       <c r="H13">
         <v>0.009259259259259259</v>
@@ -1653,10 +1653,10 @@
         <v>0.03125</v>
       </c>
       <c r="J13">
-        <v>0.021116908484597855</v>
+        <v>0.011317400465196558</v>
       </c>
       <c r="K13">
-        <v>0.020542055914619037</v>
+        <v>0.017275553241485272</v>
       </c>
       <c r="L13">
         <v>0.009259259259259259</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>51.52997350050658</v>
       </c>
       <c r="H14">
         <v>0.009259259259259259</v>
@@ -1694,10 +1694,10 @@
         <v>0.03125</v>
       </c>
       <c r="J14">
-        <v>0.010558454242298928</v>
+        <v>0.004988811102670964</v>
       </c>
       <c r="K14">
-        <v>0.01702257116718606</v>
+        <v>0.01516602345397674</v>
       </c>
       <c r="L14">
         <v>0.009259259259259259</v>
@@ -1726,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>15.59015354343935</v>
       </c>
       <c r="H15">
         <v>0.018518518518518517</v>
@@ -1735,10 +1735,10 @@
         <v>0.03125</v>
       </c>
       <c r="J15">
-        <v>0.002639613560574732</v>
+        <v>0.0015093415697000252</v>
       </c>
       <c r="K15">
-        <v>0.01746937735969775</v>
+        <v>0.01709262002940618</v>
       </c>
       <c r="L15">
         <v>0.018518518518518517</v>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>56</v>
+        <v>154.88837180361077</v>
       </c>
       <c r="H16">
         <v>0.018518518518518517</v>
@@ -1776,10 +1776,10 @@
         <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.04927278646406166</v>
+        <v>0.014995327504309416</v>
       </c>
       <c r="K16">
-        <v>0.04343043499419339</v>
+        <v>0.03200461534094264</v>
       </c>
       <c r="L16">
         <v>0.018518518518518517</v>
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4.1547562843725006</v>
       </c>
       <c r="H17">
         <v>0.009259259259259259</v>
@@ -1817,10 +1817,10 @@
         <v>0.03125</v>
       </c>
       <c r="J17">
-        <v>0.001759742373716488</v>
+        <v>0.0004022376273910897</v>
       </c>
       <c r="K17">
-        <v>0.014089667210991917</v>
+        <v>0.01363716562888345</v>
       </c>
       <c r="L17">
         <v>0.009259259259259259</v>
@@ -1849,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>120.5</v>
+        <v>1316.5001094500708</v>
       </c>
       <c r="H18">
         <v>0.07407407407407407</v>
@@ -1858,10 +1858,10 @@
         <v>0.03125</v>
       </c>
       <c r="J18">
-        <v>0.1060244780164184</v>
+        <v>0.12745534135831618</v>
       </c>
       <c r="K18">
-        <v>0.07044951736349749</v>
+        <v>0.07759313847746342</v>
       </c>
       <c r="L18">
         <v>0.07407407407407407</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>352.9893505573491</v>
       </c>
       <c r="H19">
         <v>0.009259259259259259</v>
@@ -1899,10 +1899,10 @@
         <v>0.03125</v>
       </c>
       <c r="J19">
-        <v>0.026396135605747318</v>
+        <v>0.03417423048292086</v>
       </c>
       <c r="K19">
-        <v>0.022301798288335523</v>
+        <v>0.024894496580726705</v>
       </c>
       <c r="L19">
         <v>0.009259259259259259</v>
@@ -1945,10 +1945,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -2010,10 +2010,10 @@
         <v>113</v>
       </c>
       <c r="F2">
-        <v>173.5</v>
+        <v>1733.2480829120245</v>
       </c>
       <c r="G2">
-        <v>994.5</v>
+        <v>12317.320856745844</v>
       </c>
       <c r="H2">
         <v>0.1415929203539823</v>
@@ -2022,10 +2022,10 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="J2">
-        <v>0.17445952740070386</v>
+        <v>0.14071632159868386</v>
       </c>
       <c r="K2">
-        <v>0.14575485632226912</v>
+        <v>0.13450712105492912</v>
       </c>
       <c r="L2">
         <v>0.1415929203539823</v>
@@ -2046,7 +2046,7 @@
         <v>0.020048555094369175</v>
       </c>
       <c r="R2">
-        <v>0.14730989114261106</v>
+        <v>0.8526901088573889</v>
       </c>
       <c r="S2">
         <v>14</v>
@@ -2069,7 +2069,7 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>3569.1005818902922</v>
       </c>
       <c r="H3">
         <v>0.09734513274336283</v>
@@ -2078,10 +2078,10 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="J3">
-        <v>0.2131724484665661</v>
+        <v>0.28976273520841167</v>
       </c>
       <c r="K3">
-        <v>0.14390990080735003</v>
+        <v>0.16943999638796522</v>
       </c>
       <c r="L3">
         <v>0.09734513274336283</v>
@@ -2110,7 +2110,7 @@
         <v>28</v>
       </c>
       <c r="F4">
-        <v>97</v>
+        <v>2386.660084950532</v>
       </c>
       <c r="H4">
         <v>0.24778761061946902</v>
@@ -2119,10 +2119,10 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="J4">
-        <v>0.09753645047762695</v>
+        <v>0.1937645460979793</v>
       </c>
       <c r="K4">
-        <v>0.15551206076973906</v>
+        <v>0.18758809264318985</v>
       </c>
       <c r="L4">
         <v>0.24778761061946902</v>
@@ -2151,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>41.25</v>
+        <v>325.7831581772615</v>
       </c>
       <c r="H5">
         <v>0.08849557522123894</v>
@@ -2160,10 +2160,10 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="J5">
-        <v>0.04147812971342383</v>
+        <v>0.02644918988197335</v>
       </c>
       <c r="K5">
-        <v>0.08372860871559466</v>
+        <v>0.07871896210511116</v>
       </c>
       <c r="L5">
         <v>0.08849557522123894</v>
@@ -2192,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>162.5</v>
+        <v>912.907555225024</v>
       </c>
       <c r="H6">
         <v>0.20353982300884957</v>
@@ -2201,10 +2201,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="J6">
-        <v>0.16339869281045752</v>
+        <v>0.07411575665214978</v>
       </c>
       <c r="K6">
-        <v>0.152615868909466</v>
+        <v>0.12285489019003008</v>
       </c>
       <c r="L6">
         <v>0.20353982300884957</v>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>216.96624263854508</v>
       </c>
       <c r="H7">
         <v>0.017699115044247787</v>
@@ -2242,10 +2242,10 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="J7">
-        <v>0.026143790849673203</v>
+        <v>0.0176147268681175</v>
       </c>
       <c r="K7">
-        <v>0.034816322166660536</v>
+        <v>0.0319733008394753</v>
       </c>
       <c r="L7">
         <v>0.017699115044247787</v>
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>211.69622096214823</v>
       </c>
       <c r="H8">
         <v>0.02654867256637168</v>
@@ -2283,10 +2283,10 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="J8">
-        <v>0.019105077928607342</v>
+        <v>0.01718687232590911</v>
       </c>
       <c r="K8">
-        <v>0.03541993703367988</v>
+        <v>0.0347805351661138</v>
       </c>
       <c r="L8">
         <v>0.02654867256637168</v>
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>326.72563597333846</v>
       </c>
       <c r="H9">
         <v>0.017699115044247787</v>
@@ -2324,10 +2324,10 @@
         <v>0.030303030303030304</v>
       </c>
       <c r="J9">
-        <v>0.024132730015082957</v>
+        <v>0.02652570634257694</v>
       </c>
       <c r="K9">
-        <v>0.024044958454120347</v>
+        <v>0.024842617229951677</v>
       </c>
       <c r="L9">
         <v>0.017699115044247787</v>
@@ -2356,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>362.1078232343936</v>
       </c>
       <c r="H10">
         <v>0.017699115044247787</v>
@@ -2365,10 +2365,10 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="J10">
-        <v>0.026143790849673203</v>
+        <v>0.029398261801069955</v>
       </c>
       <c r="K10">
-        <v>0.034816322166660536</v>
+        <v>0.03590114581712612</v>
       </c>
       <c r="L10">
         <v>0.017699115044247787</v>
@@ -2397,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>61.25</v>
+        <v>970.4222627306191</v>
       </c>
       <c r="H11">
         <v>0.05309734513274336</v>
@@ -2406,10 +2406,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="J11">
-        <v>0.0615887380593263</v>
+        <v>0.0787851736604837</v>
       </c>
       <c r="K11">
-        <v>0.06853172470038686</v>
+        <v>0.07426386990077266</v>
       </c>
       <c r="L11">
         <v>0.05309734513274336</v>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>51.52997350050658</v>
       </c>
       <c r="H12">
         <v>0.008849557522123894</v>
@@ -2447,10 +2447,10 @@
         <v>0.030303030303030304</v>
       </c>
       <c r="J12">
-        <v>0.004022121669180492</v>
+        <v>0.004183537483501137</v>
       </c>
       <c r="K12">
-        <v>0.014391569831444897</v>
+        <v>0.014445375102885112</v>
       </c>
       <c r="L12">
         <v>0.008849557522123894</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>243.28493509399362</v>
       </c>
       <c r="H13">
         <v>0.008849557522123894</v>
@@ -2488,10 +2488,10 @@
         <v>0.030303030303030304</v>
       </c>
       <c r="J13">
-        <v>0.020110608345902465</v>
+        <v>0.01975144903047268</v>
       </c>
       <c r="K13">
-        <v>0.019754398723685552</v>
+        <v>0.019634678951875626</v>
       </c>
       <c r="L13">
         <v>0.008849557522123894</v>
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>145.04733281624078</v>
       </c>
       <c r="H14">
         <v>0.035398230088495575</v>
@@ -2529,10 +2529,10 @@
         <v>0.030303030303030304</v>
       </c>
       <c r="J14">
-        <v>0.033182503770739065</v>
+        <v>0.011775883286892093</v>
       </c>
       <c r="K14">
-        <v>0.03296125472075498</v>
+        <v>0.02582571455947266</v>
       </c>
       <c r="L14">
         <v>0.035398230088495575</v>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>95</v>
+        <v>861.8409666409219</v>
       </c>
       <c r="H15">
         <v>0.035398230088495575</v>
@@ -2570,10 +2570,10 @@
         <v>0.030303030303030304</v>
       </c>
       <c r="J15">
-        <v>0.0955253896430367</v>
+        <v>0.06996983976177874</v>
       </c>
       <c r="K15">
-        <v>0.05374221667818752</v>
+        <v>0.045223700051101545</v>
       </c>
       <c r="L15">
         <v>0.035398230088495575</v>
@@ -2616,10 +2616,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -2681,10 +2681,10 @@
         <v>107</v>
       </c>
       <c r="F2">
-        <v>451.25</v>
+        <v>4613.829364859944</v>
       </c>
       <c r="G2">
-        <v>987</v>
+        <v>9834.25314723827</v>
       </c>
       <c r="H2">
         <v>0.2803738317757009</v>
@@ -2693,10 +2693,10 @@
         <v>0.125</v>
       </c>
       <c r="J2">
-        <v>0.457193515704154</v>
+        <v>0.46915910092833374</v>
       </c>
       <c r="K2">
-        <v>0.2875224491599517</v>
+        <v>0.29151097756801153</v>
       </c>
       <c r="L2">
         <v>0.2803738317757009</v>
@@ -2717,7 +2717,7 @@
         <v>0.07860948554458903</v>
       </c>
       <c r="R2">
-        <v>0.14018691588785046</v>
+        <v>0.8598130841121495</v>
       </c>
       <c r="S2">
         <v>16</v>
@@ -2740,7 +2740,7 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>155.5</v>
+        <v>1330.2759932360618</v>
       </c>
       <c r="H3">
         <v>0.1308411214953271</v>
@@ -2749,10 +2749,10 @@
         <v>0.0625</v>
       </c>
       <c r="J3">
-        <v>0.157548125633232</v>
+        <v>0.1352696512199953</v>
       </c>
       <c r="K3">
-        <v>0.11696308237618636</v>
+        <v>0.10953692423844079</v>
       </c>
       <c r="L3">
         <v>0.1308411214953271</v>
@@ -2781,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>31.5</v>
+        <v>1018.6378559815885</v>
       </c>
       <c r="H4">
         <v>0.14018691588785046</v>
@@ -2790,10 +2790,10 @@
         <v>0.09375</v>
       </c>
       <c r="J4">
-        <v>0.031914893617021274</v>
+        <v>0.10358060146821114</v>
       </c>
       <c r="K4">
-        <v>0.08861726983495725</v>
+        <v>0.11250583911868721</v>
       </c>
       <c r="L4">
         <v>0.14018691588785046</v>
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>55.75</v>
+        <v>183.89312597787853</v>
       </c>
       <c r="H5">
         <v>0.07476635514018691</v>
@@ -2831,10 +2831,10 @@
         <v>0.0625</v>
       </c>
       <c r="J5">
-        <v>0.05648429584599798</v>
+        <v>0.018699246727192576</v>
       </c>
       <c r="K5">
-        <v>0.0645835503287283</v>
+        <v>0.05198853395579317</v>
       </c>
       <c r="L5">
         <v>0.07476635514018691</v>
@@ -2863,7 +2863,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>53</v>
+        <v>464.31954021893745</v>
       </c>
       <c r="H6">
         <v>0.06542056074766354</v>
@@ -2872,10 +2872,10 @@
         <v>0.09375</v>
       </c>
       <c r="J6">
-        <v>0.05369807497467072</v>
+        <v>0.04721451982851704</v>
       </c>
       <c r="K6">
-        <v>0.07095621190744476</v>
+        <v>0.06879502685872686</v>
       </c>
       <c r="L6">
         <v>0.06542056074766354</v>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>24.630086404143977</v>
       </c>
       <c r="H7">
         <v>0.009345794392523364</v>
@@ -2913,10 +2913,10 @@
         <v>0.03125</v>
       </c>
       <c r="J7">
-        <v>0.0060790273556231</v>
+        <v>0.002504520275752794</v>
       </c>
       <c r="K7">
-        <v>0.015558273916048823</v>
+        <v>0.014366771556092053</v>
       </c>
       <c r="L7">
         <v>0.009345794392523364</v>
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>49</v>
+        <v>314.68548212845565</v>
       </c>
       <c r="H8">
         <v>0.037383177570093455</v>
@@ -2954,10 +2954,10 @@
         <v>0.09375</v>
       </c>
       <c r="J8">
-        <v>0.04964539007092199</v>
+        <v>0.03199892024508521</v>
       </c>
       <c r="K8">
-        <v>0.06025952254700515</v>
+        <v>0.054377365938392895</v>
       </c>
       <c r="L8">
         <v>0.037383177570093455</v>
@@ -2986,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>205.8528586264712</v>
       </c>
       <c r="H9">
         <v>0.018691588785046728</v>
@@ -2995,10 +2995,10 @@
         <v>0.0625</v>
       </c>
       <c r="J9">
-        <v>0.014184397163120567</v>
+        <v>0.02093223100366095</v>
       </c>
       <c r="K9">
-        <v>0.03179199531605576</v>
+        <v>0.034041273262902565</v>
       </c>
       <c r="L9">
         <v>0.018691588785046728</v>
@@ -3027,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>241.81624052844037</v>
       </c>
       <c r="H10">
         <v>0.06542056074766354</v>
@@ -3036,10 +3036,10 @@
         <v>0.0625</v>
       </c>
       <c r="J10">
-        <v>0.05167173252279635</v>
+        <v>0.024589182005788517</v>
       </c>
       <c r="K10">
-        <v>0.05986409775681997</v>
+        <v>0.05083658091781736</v>
       </c>
       <c r="L10">
         <v>0.06542056074766354</v>
@@ -3068,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>14.137166941154069</v>
       </c>
       <c r="H11">
         <v>0.018691588785046728</v>
@@ -3077,10 +3077,10 @@
         <v>0.0625</v>
       </c>
       <c r="J11">
-        <v>0.004559270516717325</v>
+        <v>0.0014375435256234151</v>
       </c>
       <c r="K11">
-        <v>0.028583619767254684</v>
+        <v>0.027543044103556718</v>
       </c>
       <c r="L11">
         <v>0.018691588785046728</v>
@@ -3109,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>88.85209422515334</v>
       </c>
       <c r="H12">
         <v>0.028037383177570093</v>
@@ -3118,10 +3118,10 @@
         <v>0.0625</v>
       </c>
       <c r="J12">
-        <v>0.022289766970618033</v>
+        <v>0.009034961058543164</v>
       </c>
       <c r="K12">
-        <v>0.03760905004939604</v>
+        <v>0.033190781412037754</v>
       </c>
       <c r="L12">
         <v>0.028037383177570093</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>32.169908772759484</v>
       </c>
       <c r="H13">
         <v>0.009345794392523364</v>
@@ -3159,10 +3159,10 @@
         <v>0.03125</v>
       </c>
       <c r="J13">
-        <v>0.020263424518743668</v>
+        <v>0.0032712101560852824</v>
       </c>
       <c r="K13">
-        <v>0.020286406303755677</v>
+        <v>0.014622334849536215</v>
       </c>
       <c r="L13">
         <v>0.009345794392523364</v>
@@ -3191,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <v>59.25</v>
+        <v>1184.7102976319788</v>
       </c>
       <c r="H14">
         <v>0.08411214953271028</v>
@@ -3200,10 +3200,10 @@
         <v>0.0625</v>
       </c>
       <c r="J14">
-        <v>0.06003039513677812</v>
+        <v>0.1204677447178262</v>
       </c>
       <c r="K14">
-        <v>0.0688808482231628</v>
+        <v>0.08902663141684548</v>
       </c>
       <c r="L14">
         <v>0.08411214953271028</v>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2.25</v>
+        <v>15.904312808798327</v>
       </c>
       <c r="H15">
         <v>0.009345794392523364</v>
@@ -3241,10 +3241,10 @@
         <v>0.03125</v>
       </c>
       <c r="J15">
-        <v>0.0022796352583586625</v>
+        <v>0.0016172364663263419</v>
       </c>
       <c r="K15">
-        <v>0.014291809883627342</v>
+        <v>0.014071010286283235</v>
       </c>
       <c r="L15">
         <v>0.009345794392523364</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>84.94866535306801</v>
       </c>
       <c r="H16">
         <v>0.009345794392523364</v>
@@ -3282,10 +3282,10 @@
         <v>0.03125</v>
       </c>
       <c r="J16">
-        <v>0.00911854103343465</v>
+        <v>0.008638039318412699</v>
       </c>
       <c r="K16">
-        <v>0.016571445141986007</v>
+        <v>0.016411277903645355</v>
       </c>
       <c r="L16">
         <v>0.009345794392523364</v>
@@ -3314,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>15.59015354343935</v>
       </c>
       <c r="H17">
         <v>0.018691588785046728</v>
@@ -3323,10 +3323,10 @@
         <v>0.03125</v>
       </c>
       <c r="J17">
-        <v>0.00303951367781155</v>
+        <v>0.0015852910546458217</v>
       </c>
       <c r="K17">
-        <v>0.017660367487619427</v>
+        <v>0.01717562661323085</v>
       </c>
       <c r="L17">
         <v>0.018691588785046728</v>
@@ -3369,10 +3369,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -3434,10 +3434,10 @@
         <v>98</v>
       </c>
       <c r="F2">
-        <v>231.5</v>
+        <v>2917.3928938663576</v>
       </c>
       <c r="G2">
-        <v>990.75</v>
+        <v>8716.466627109392</v>
       </c>
       <c r="H2">
         <v>0.12244897959183673</v>
@@ -3446,10 +3446,10 @@
         <v>0.12903225806451613</v>
       </c>
       <c r="J2">
-        <v>0.2336613676507696</v>
+        <v>0.33469902641431226</v>
       </c>
       <c r="K2">
-        <v>0.16171420176904083</v>
+        <v>0.1953934213568884</v>
       </c>
       <c r="L2">
         <v>0.12244897959183673</v>
@@ -3470,7 +3470,7 @@
         <v>0.014993752603082049</v>
       </c>
       <c r="R2">
-        <v>0.10141607663473556</v>
+        <v>0.8985839233652644</v>
       </c>
       <c r="S2">
         <v>18</v>
@@ -3493,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>631.4993932797182</v>
       </c>
       <c r="H3">
         <v>0.02040816326530612</v>
@@ -3502,10 +3502,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J3">
-        <v>0.05046681806712087</v>
+        <v>0.07244901177223229</v>
       </c>
       <c r="K3">
-        <v>0.03437768194951867</v>
+        <v>0.04170507985122248</v>
       </c>
       <c r="L3">
         <v>0.02040816326530612</v>
@@ -3534,7 +3534,7 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>1012.8808874438852</v>
       </c>
       <c r="H4">
         <v>0.19387755102040816</v>
@@ -3543,10 +3543,10 @@
         <v>0.12903225806451613</v>
       </c>
       <c r="J4">
-        <v>0.045420136260408785</v>
+        <v>0.11620315097561303</v>
       </c>
       <c r="K4">
-        <v>0.12277664844844437</v>
+        <v>0.14637098668684576</v>
       </c>
       <c r="L4">
         <v>0.19387755102040816</v>
@@ -3575,7 +3575,7 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>39.5</v>
+        <v>274.8029633911332</v>
       </c>
       <c r="H5">
         <v>0.09183673469387756</v>
@@ -3584,10 +3584,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="J5">
-        <v>0.03986878627302549</v>
+        <v>0.031526876100971775</v>
       </c>
       <c r="K5">
-        <v>0.06540721666638703</v>
+        <v>0.06262657994236913</v>
       </c>
       <c r="L5">
         <v>0.09183673469387756</v>
@@ -3616,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>16.75</v>
+        <v>83.61348847529234</v>
       </c>
       <c r="H6">
         <v>0.030612244897959183</v>
@@ -3625,10 +3625,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="J6">
-        <v>0.01690638405248549</v>
+        <v>0.009592589755950315</v>
       </c>
       <c r="K6">
-        <v>0.03734491932756758</v>
+        <v>0.03490698789538919</v>
       </c>
       <c r="L6">
         <v>0.030612244897959183</v>
@@ -3657,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>151.5</v>
+        <v>1014.3731439543403</v>
       </c>
       <c r="H7">
         <v>0.12244897959183673</v>
@@ -3666,10 +3666,10 @@
         <v>0.0967741935483871</v>
       </c>
       <c r="J7">
-        <v>0.15291445874337622</v>
+        <v>0.11637435068006828</v>
       </c>
       <c r="K7">
-        <v>0.12404587729453335</v>
+        <v>0.1118658412734307</v>
       </c>
       <c r="L7">
         <v>0.12244897959183673</v>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>246.05739061078654</v>
       </c>
       <c r="H8">
         <v>0.01020408163265306</v>
@@ -3707,10 +3707,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J8">
-        <v>0.03028009084027252</v>
+        <v>0.02822902916251807</v>
       </c>
       <c r="K8">
-        <v>0.02424741232968487</v>
+        <v>0.02356372510376672</v>
       </c>
       <c r="L8">
         <v>0.01020408163265306</v>
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>46.5</v>
+        <v>769.5802443866237</v>
       </c>
       <c r="H9">
         <v>0.030612244897959183</v>
@@ -3748,10 +3748,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J9">
-        <v>0.046934140802422405</v>
+        <v>0.08829039074079913</v>
       </c>
       <c r="K9">
-        <v>0.036601483405503545</v>
+        <v>0.05038690005162912</v>
       </c>
       <c r="L9">
         <v>0.030612244897959183</v>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>19.75</v>
+        <v>91.67952761338414</v>
       </c>
       <c r="H10">
         <v>0.10204081632653061</v>
@@ -3789,10 +3789,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J10">
-        <v>0.019934393136512744</v>
+        <v>0.010517969211084728</v>
       </c>
       <c r="K10">
-        <v>0.051411091326390795</v>
+        <v>0.04827228335124812</v>
       </c>
       <c r="L10">
         <v>0.10204081632653061</v>
@@ -3821,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>113.88273369263</v>
       </c>
       <c r="H11">
         <v>0.02040816326530612</v>
@@ -3830,10 +3830,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J11">
-        <v>0.021196063588190765</v>
+        <v>0.013065240603163587</v>
       </c>
       <c r="K11">
-        <v>0.024620763789875304</v>
+        <v>0.02191048946153291</v>
       </c>
       <c r="L11">
         <v>0.02040816326530612</v>
@@ -3862,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>44</v>
+        <v>121.62675958372884</v>
       </c>
       <c r="H12">
         <v>0.08163265306122448</v>
@@ -3871,10 +3871,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="J12">
-        <v>0.044410799899066364</v>
+        <v>0.013953676964178712</v>
       </c>
       <c r="K12">
-        <v>0.06351986066418297</v>
+        <v>0.05336748635255375</v>
       </c>
       <c r="L12">
         <v>0.08163265306122448</v>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>116.89866264007618</v>
       </c>
       <c r="H13">
         <v>0.01020408163265306</v>
@@ -3912,10 +3912,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J13">
-        <v>0.020186727226848347</v>
+        <v>0.0134112442163784</v>
       </c>
       <c r="K13">
-        <v>0.02088295779187681</v>
+        <v>0.0186244634550535</v>
       </c>
       <c r="L13">
         <v>0.01020408163265306</v>
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>4.25</v>
+        <v>16.46979948644449</v>
       </c>
       <c r="H14">
         <v>0.02040816326530612</v>
@@ -3953,10 +3953,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J14">
-        <v>0.004289679535705274</v>
+        <v>0.001889504106540279</v>
       </c>
       <c r="K14">
-        <v>0.01898530243904681</v>
+        <v>0.018185243962658474</v>
       </c>
       <c r="L14">
         <v>0.02040816326530612</v>
@@ -3985,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>134</v>
+        <v>400.09753239792815</v>
       </c>
       <c r="H15">
         <v>0.05102040816326531</v>
@@ -3994,10 +3994,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="J15">
-        <v>0.13525107241988393</v>
+        <v>0.04590134391767997</v>
       </c>
       <c r="K15">
-        <v>0.08359586987180244</v>
+        <v>0.05381262703773445</v>
       </c>
       <c r="L15">
         <v>0.05102040816326531</v>
@@ -4026,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>85</v>
+        <v>724.0585668361075</v>
       </c>
       <c r="H16">
         <v>0.030612244897959183</v>
@@ -4035,10 +4035,10 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="J16">
-        <v>0.08579359071410547</v>
+        <v>0.083067898703838</v>
       </c>
       <c r="K16">
-        <v>0.06030732154810758</v>
+        <v>0.05939875754468508</v>
       </c>
       <c r="L16">
         <v>0.030612244897959183</v>
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>23.891812130550377</v>
       </c>
       <c r="H17">
         <v>0.02040816326530612</v>
@@ -4076,10 +4076,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J17">
-        <v>0.012112036336109008</v>
+        <v>0.002740997373436113</v>
       </c>
       <c r="K17">
-        <v>0.021592754705848052</v>
+        <v>0.018469075051623752</v>
       </c>
       <c r="L17">
         <v>0.02040816326530612</v>
@@ -4108,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>38</v>
+        <v>153.50607103603127</v>
       </c>
       <c r="H18">
         <v>0.030612244897959183</v>
@@ -4117,10 +4117,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J18">
-        <v>0.03835478173101186</v>
+        <v>0.017611043281988436</v>
       </c>
       <c r="K18">
-        <v>0.033741697048366694</v>
+        <v>0.026827117565358886</v>
       </c>
       <c r="L18">
         <v>0.030612244897959183</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4.1547562843725006</v>
       </c>
       <c r="H19">
         <v>0.01020408163265306</v>
@@ -4158,10 +4158,10 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="J19">
-        <v>0.0020186727226848347</v>
+        <v>0.00047665601924645084</v>
       </c>
       <c r="K19">
-        <v>0.014826939623822309</v>
+        <v>0.014312934056009514</v>
       </c>
       <c r="L19">
         <v>0.01020408163265306</v>
@@ -4204,10 +4204,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -4269,10 +4269,10 @@
         <v>99</v>
       </c>
       <c r="F2">
-        <v>549</v>
+        <v>6029.462430494042</v>
       </c>
       <c r="G2">
-        <v>1271</v>
+        <v>11847.59777716273</v>
       </c>
       <c r="H2">
         <v>0.23232323232323232</v>
@@ -4281,10 +4281,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J2">
-        <v>0.43194335169158143</v>
+        <v>0.5089185625558923</v>
       </c>
       <c r="K2">
-        <v>0.2658666391160491</v>
+        <v>0.291525042737486</v>
       </c>
       <c r="L2">
         <v>0.23232323232323232</v>
@@ -4305,7 +4305,7 @@
         <v>0.05397408427711458</v>
       </c>
       <c r="R2">
-        <v>0.1460055096418733</v>
+        <v>0.8539944903581267</v>
       </c>
       <c r="S2">
         <v>13</v>
@@ -4328,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>39.75</v>
+        <v>894.8826673750527</v>
       </c>
       <c r="H3">
         <v>0.12121212121212122</v>
@@ -4337,10 +4337,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J3">
-        <v>0.03127458693941778</v>
+        <v>0.07553283663123815</v>
       </c>
       <c r="K3">
-        <v>0.0952733471616241</v>
+        <v>0.11002609705889756</v>
       </c>
       <c r="L3">
         <v>0.12121212121212122</v>
@@ -4369,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>265</v>
+        <v>1518.088256049294</v>
       </c>
       <c r="H4">
         <v>0.21212121212121213</v>
@@ -4378,10 +4378,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J4">
-        <v>0.2084972462627852</v>
+        <v>0.12813468895572575</v>
       </c>
       <c r="K4">
-        <v>0.18465059723911023</v>
+        <v>0.15786307813675707</v>
       </c>
       <c r="L4">
         <v>0.21212121212121213</v>
@@ -4410,7 +4410,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>47</v>
+        <v>215.34832242194634</v>
       </c>
       <c r="H5">
         <v>0.06060606060606061</v>
@@ -4419,10 +4419,10 @@
         <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.03697875688434304</v>
+        <v>0.018176538946743186</v>
       </c>
       <c r="K5">
-        <v>0.06586160583013455</v>
+        <v>0.059594199850934594</v>
       </c>
       <c r="L5">
         <v>0.06060606060606061</v>
@@ -4451,7 +4451,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>62</v>
+        <v>496.41090917535723</v>
       </c>
       <c r="H6">
         <v>0.04040404040404041</v>
@@ -4460,10 +4460,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J6">
-        <v>0.04878048780487805</v>
+        <v>0.041899709840946174</v>
       </c>
       <c r="K6">
-        <v>0.05195039829186171</v>
+        <v>0.04965680563721775</v>
       </c>
       <c r="L6">
         <v>0.04040404040404041</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>51.52997350050658</v>
       </c>
       <c r="H7">
         <v>0.010101010101010102</v>
@@ -4501,10 +4501,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J7">
-        <v>0.00944138473642801</v>
+        <v>0.0043494026780547075</v>
       </c>
       <c r="K7">
-        <v>0.017625242723590482</v>
+        <v>0.01592791537079938</v>
       </c>
       <c r="L7">
         <v>0.010101010101010102</v>
@@ -4533,7 +4533,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>60.75</v>
+        <v>849.0703925040793</v>
       </c>
       <c r="H8">
         <v>0.04040404040404041</v>
@@ -4542,10 +4542,10 @@
         <v>0.1</v>
       </c>
       <c r="J8">
-        <v>0.0477970102281668</v>
+        <v>0.07166603799976533</v>
       </c>
       <c r="K8">
-        <v>0.06273368354406907</v>
+        <v>0.07069002613460192</v>
       </c>
       <c r="L8">
         <v>0.04040404040404041</v>
@@ -4574,7 +4574,7 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>86</v>
+        <v>280.10440099406594</v>
       </c>
       <c r="H9">
         <v>0.13131313131313133</v>
@@ -4583,10 +4583,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J9">
-        <v>0.06766325727773406</v>
+        <v>0.02364229494134173</v>
       </c>
       <c r="K9">
-        <v>0.08854768508584403</v>
+        <v>0.07387403097371324</v>
       </c>
       <c r="L9">
         <v>0.13131313131313133</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>120.92775521830512</v>
       </c>
       <c r="H10">
         <v>0.020202020202020204</v>
@@ -4624,10 +4624,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J10">
-        <v>0.01888276947285602</v>
+        <v>0.010206943001677845</v>
       </c>
       <c r="K10">
-        <v>0.024139374336069847</v>
+        <v>0.02124743217901046</v>
       </c>
       <c r="L10">
         <v>0.020202020202020204</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>106</v>
+        <v>1332.2551966078233</v>
       </c>
       <c r="H11">
         <v>0.08080808080808081</v>
@@ -4665,10 +4665,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J11">
-        <v>0.08339889850511409</v>
+        <v>0.11244939452416763</v>
       </c>
       <c r="K11">
-        <v>0.0769578819932872</v>
+        <v>0.08664138066630504</v>
       </c>
       <c r="L11">
         <v>0.08080808080808081</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>7.0685834705770345</v>
       </c>
       <c r="H12">
         <v>0.010101010101010102</v>
@@ -4706,10 +4706,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J12">
-        <v>0.007081038552321007</v>
+        <v>0.0005966258817633345</v>
       </c>
       <c r="K12">
-        <v>0.016838460662221482</v>
+        <v>0.01467698977203559</v>
       </c>
       <c r="L12">
         <v>0.010101010101010102</v>
@@ -4738,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>8.5</v>
+        <v>45.38030588110457</v>
       </c>
       <c r="H13">
         <v>0.030303030303030304</v>
@@ -4747,10 +4747,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J13">
-        <v>0.006687647521636507</v>
+        <v>0.0038303381609206075</v>
       </c>
       <c r="K13">
-        <v>0.034552448163777824</v>
+        <v>0.03360001171020586</v>
       </c>
       <c r="L13">
         <v>0.030303030303030304</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>7.0685834705770345</v>
       </c>
       <c r="H14">
         <v>0.010101010101010102</v>
@@ -4788,10 +4788,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J14">
-        <v>0.0015735641227380016</v>
+        <v>0.0005966258817633345</v>
       </c>
       <c r="K14">
-        <v>0.01500263585236048</v>
+        <v>0.01467698977203559</v>
       </c>
       <c r="L14">
         <v>0.010101010101010102</v>
@@ -4834,10 +4834,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>
@@ -4899,10 +4899,10 @@
         <v>110</v>
       </c>
       <c r="F2">
-        <v>103.5</v>
+        <v>583.896410596199</v>
       </c>
       <c r="G2">
-        <v>1389.25</v>
+        <v>15895.964026321415</v>
       </c>
       <c r="H2">
         <v>0.05454545454545454</v>
@@ -4911,10 +4911,10 @@
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.07450062983624257</v>
+        <v>0.036732368645862</v>
       </c>
       <c r="K2">
-        <v>0.07634869479389904</v>
+        <v>0.0637592743971055</v>
       </c>
       <c r="L2">
         <v>0.05454545454545454</v>
@@ -4935,7 +4935,7 @@
         <v>0.0029752066115702478</v>
       </c>
       <c r="R2">
-        <v>0.18231404958677688</v>
+        <v>0.8176859504132231</v>
       </c>
       <c r="S2">
         <v>15</v>
@@ -4958,7 +4958,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>72.5</v>
+        <v>1531.542126588292</v>
       </c>
       <c r="H3">
         <v>0.16363636363636364</v>
@@ -4967,10 +4967,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J3">
-        <v>0.05218643152780277</v>
+        <v>0.09634786063004923</v>
       </c>
       <c r="K3">
-        <v>0.11638537616583326</v>
+        <v>0.13110585253324875</v>
       </c>
       <c r="L3">
         <v>0.16363636363636364</v>
@@ -4999,7 +4999,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>414.25</v>
+        <v>4938.096704581849</v>
       </c>
       <c r="H4">
         <v>0.2818181818181818</v>
@@ -5008,10 +5008,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J4">
-        <v>0.29818247255713515</v>
+        <v>0.31065097381983725</v>
       </c>
       <c r="K4">
-        <v>0.23777799590288343</v>
+        <v>0.24193416299045079</v>
       </c>
       <c r="L4">
         <v>0.2818181818181818</v>
@@ -5040,7 +5040,7 @@
         <v>27</v>
       </c>
       <c r="F5">
-        <v>346.5</v>
+        <v>3771.9767814774864</v>
       </c>
       <c r="H5">
         <v>0.24545454545454545</v>
@@ -5049,10 +5049,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J5">
-        <v>0.24941515206046427</v>
+        <v>0.23729147695802777</v>
       </c>
       <c r="K5">
-        <v>0.20940101028278102</v>
+        <v>0.20535978524863552</v>
       </c>
       <c r="L5">
         <v>0.24545454545454545</v>
@@ -5081,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>28.5</v>
+        <v>96.22698297945536</v>
       </c>
       <c r="H6">
         <v>0.05454545454545454</v>
@@ -5090,10 +5090,10 @@
         <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0.020514666186791434</v>
+        <v>0.006053548109452022</v>
       </c>
       <c r="K6">
-        <v>0.058353373577415324</v>
+        <v>0.05353300088496885</v>
       </c>
       <c r="L6">
         <v>0.05454545454545454</v>
@@ -5122,7 +5122,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>217</v>
+        <v>1999.5451841935635</v>
       </c>
       <c r="H7">
         <v>0.09090909090909091</v>
@@ -5131,10 +5131,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J7">
-        <v>0.15619938815907863</v>
+        <v>0.12578948850680627</v>
       </c>
       <c r="K7">
-        <v>0.10459171524494541</v>
+        <v>0.09445508202752129</v>
       </c>
       <c r="L7">
         <v>0.09090909090909091</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>333.2915646193412</v>
       </c>
       <c r="H8">
         <v>0.00909090909090909</v>
@@ -5172,10 +5172,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J8">
-        <v>0.017995321216483715</v>
+        <v>0.02096705579274454</v>
       </c>
       <c r="K8">
-        <v>0.02013985454690871</v>
+        <v>0.02113043273899565</v>
       </c>
       <c r="L8">
         <v>0.00909090909090909</v>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>346.36059005827474</v>
       </c>
       <c r="H9">
         <v>0.00909090909090909</v>
@@ -5213,10 +5213,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J9">
-        <v>0.025913262551736548</v>
+        <v>0.021789215771044257</v>
       </c>
       <c r="K9">
-        <v>0.022779168325326324</v>
+        <v>0.021404486065095558</v>
       </c>
       <c r="L9">
         <v>0.00909090909090909</v>
@@ -5245,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>182.56580308173685</v>
       </c>
       <c r="H10">
         <v>0.01818181818181818</v>
@@ -5254,10 +5254,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J10">
-        <v>0.00503868994061544</v>
+        <v>0.01148504128339963</v>
       </c>
       <c r="K10">
-        <v>0.01885128048525565</v>
+        <v>0.021000064266183713</v>
       </c>
       <c r="L10">
         <v>0.01818181818181818</v>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>973.1397403759745</v>
       </c>
       <c r="H11">
         <v>0.00909090909090909</v>
@@ -5295,10 +5295,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J11">
-        <v>0.025913262551736548</v>
+        <v>0.061219296845702216</v>
       </c>
       <c r="K11">
-        <v>0.022779168325326324</v>
+        <v>0.034547846423314876</v>
       </c>
       <c r="L11">
         <v>0.00909090909090909</v>
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>298.6476516318797</v>
       </c>
       <c r="H12">
         <v>0.00909090909090909</v>
@@ -5336,10 +5336,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J12">
-        <v>0.021594385459780457</v>
+        <v>0.018787640129114686</v>
       </c>
       <c r="K12">
-        <v>0.021339542628007625</v>
+        <v>0.020403960851119035</v>
       </c>
       <c r="L12">
         <v>0.00909090909090909</v>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>572.5552611167398</v>
       </c>
       <c r="H13">
         <v>0.00909090909090909</v>
@@ -5377,10 +5377,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J13">
-        <v>0.025913262551736548</v>
+        <v>0.03601890770315479</v>
       </c>
       <c r="K13">
-        <v>0.022779168325326324</v>
+        <v>0.026147716709132404</v>
       </c>
       <c r="L13">
         <v>0.00909090909090909</v>
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>184.6392542331061</v>
       </c>
       <c r="H14">
         <v>0.02727272727272727</v>
@@ -5418,10 +5418,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J14">
-        <v>0.01655569551916502</v>
+        <v>0.011615480126110642</v>
       </c>
       <c r="K14">
-        <v>0.03683169648618632</v>
+        <v>0.03518495802183486</v>
       </c>
       <c r="L14">
         <v>0.02727272727272727</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>81.7128249198705</v>
       </c>
       <c r="H15">
         <v>0.00909090909090909</v>
@@ -5459,10 +5459,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.008637754183912183</v>
+        <v>0.005140476210474929</v>
       </c>
       <c r="K15">
-        <v>0.017020665536051534</v>
+        <v>0.01585490621157245</v>
       </c>
       <c r="L15">
         <v>0.00909090909090909</v>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1.7671458676442586</v>
       </c>
       <c r="H16">
         <v>0.00909090909090909</v>
@@ -5500,10 +5500,10 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.001439625697318697</v>
+        <v>0.00011116946821961355</v>
       </c>
       <c r="K16">
-        <v>0.014621289373853706</v>
+        <v>0.014178470630820677</v>
       </c>
       <c r="L16">
         <v>0.00909090909090909</v>
@@ -5546,10 +5546,10 @@
         <v>总数量</v>
       </c>
       <c r="F1" t="str">
-        <v>冠幅/种</v>
+        <v>胸高断/种</v>
       </c>
       <c r="G1" t="str">
-        <v>总冠幅</v>
+        <v>总胸高断</v>
       </c>
       <c r="H1" t="str">
         <v>相对密度</v>

--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -10,7 +10,6 @@
     <sheet name="大样地乔木层5" sheetId="5" r:id="rId5"/>
     <sheet name="大样地乔木层6" sheetId="6" r:id="rId6"/>
     <sheet name="大样地乔木层7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -5523,77 +5522,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>物种</v>
-      </c>
-      <c r="B1" t="str">
-        <v>样方/种</v>
-      </c>
-      <c r="C1" t="str">
-        <v>总样方数</v>
-      </c>
-      <c r="D1" t="str">
-        <v>数量/种</v>
-      </c>
-      <c r="E1" t="str">
-        <v>总数量</v>
-      </c>
-      <c r="F1" t="str">
-        <v>胸高断/种</v>
-      </c>
-      <c r="G1" t="str">
-        <v>总胸高断</v>
-      </c>
-      <c r="H1" t="str">
-        <v>相对密度</v>
-      </c>
-      <c r="I1" t="str">
-        <v>相对频度</v>
-      </c>
-      <c r="J1" t="str">
-        <v>相对优势</v>
-      </c>
-      <c r="K1" t="str">
-        <v>重要值</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Pi</v>
-      </c>
-      <c r="M1" t="str">
-        <v>lnPi</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Pi*lnPi</v>
-      </c>
-      <c r="O1" t="str">
-        <v>分种Shannon-Wiener指数</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Shannon-Wiener指数</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Pi2</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Simpson指数</v>
-      </c>
-      <c r="S1" t="str">
-        <v>物种多样性指数</v>
-      </c>
-      <c r="T1" t="str">
-        <v>lnS</v>
-      </c>
-      <c r="U1" t="str">
-        <v>物种均匀度指数</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>